--- a/Excel_files/Note_final_detaillees.xlsx
+++ b/Excel_files/Note_final_detaillees.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\PycharmProjects\PythonProject1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Application-Gestion-Note\App-Gestion-Notes\Excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE1D5E7-437F-4A89-9B21-84514834F16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AA5A18-04C4-4CF9-8A9F-377A46458D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1488" yWindow="3576" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -346,9 +346,6 @@
     <t>FirstName</t>
   </si>
   <si>
-    <t>Lastname</t>
-  </si>
-  <si>
     <t>ABDELOUAHED</t>
   </si>
   <si>
@@ -710,6 +707,9 @@
   </si>
   <si>
     <t>ZAHAR</t>
+  </si>
+  <si>
+    <t>LastName</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1100,7 @@
   <dimension ref="A1:AS65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP2" sqref="AP2"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1113,7 +1113,7 @@
         <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>229</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -1247,10 +1247,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D2" s="4">
         <v>13.32</v>
@@ -1384,10 +1384,10 @@
         <v>44</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D3" s="4">
         <v>12.57</v>
@@ -1521,10 +1521,10 @@
         <v>45</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D4" s="4">
         <v>13.32</v>
@@ -1658,10 +1658,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D5" s="4">
         <v>13.32</v>
@@ -1795,10 +1795,10 @@
         <v>47</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D6" s="4">
         <v>15.33</v>
@@ -1932,10 +1932,10 @@
         <v>48</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D7" s="4">
         <v>13.32</v>
@@ -2069,10 +2069,10 @@
         <v>49</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D8" s="4">
         <v>13.32</v>
@@ -2206,10 +2206,10 @@
         <v>50</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D9" s="4">
         <v>13.32</v>
@@ -2343,10 +2343,10 @@
         <v>51</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D10" s="4">
         <v>13.32</v>
@@ -2480,10 +2480,10 @@
         <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D11" s="4">
         <v>13.32</v>
@@ -2617,10 +2617,10 @@
         <v>53</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D12" s="4">
         <v>13.32</v>
@@ -2754,10 +2754,10 @@
         <v>54</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D13" s="4">
         <v>13.32</v>
@@ -2891,10 +2891,10 @@
         <v>55</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D14" s="4">
         <v>13.32</v>
@@ -3028,10 +3028,10 @@
         <v>56</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D15" s="4">
         <v>13.32</v>
@@ -3165,10 +3165,10 @@
         <v>57</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="D16" s="4">
         <v>13.32</v>
@@ -3302,10 +3302,10 @@
         <v>58</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="D17" s="4">
         <v>13.32</v>
@@ -3439,10 +3439,10 @@
         <v>59</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="D18" s="4">
         <v>13.32</v>
@@ -3576,10 +3576,10 @@
         <v>60</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="D19" s="4">
         <v>13.32</v>
@@ -3713,10 +3713,10 @@
         <v>61</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D20" s="4">
         <v>13.32</v>
@@ -3850,10 +3850,10 @@
         <v>62</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="D21" s="4">
         <v>13.32</v>
@@ -3987,10 +3987,10 @@
         <v>63</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="D22" s="4">
         <v>13.32</v>
@@ -4124,10 +4124,10 @@
         <v>64</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="D23" s="4">
         <v>13.32</v>
@@ -4261,10 +4261,10 @@
         <v>65</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="D24" s="4">
         <v>13.32</v>
@@ -4398,10 +4398,10 @@
         <v>66</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="D25" s="4">
         <v>13.32</v>
@@ -4535,10 +4535,10 @@
         <v>67</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="D26" s="4">
         <v>13.32</v>
@@ -4672,10 +4672,10 @@
         <v>68</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="D27" s="4">
         <v>13.32</v>
@@ -4809,10 +4809,10 @@
         <v>69</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="D28" s="4">
         <v>13.32</v>
@@ -4946,10 +4946,10 @@
         <v>70</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="D29" s="4">
         <v>13.32</v>
@@ -5083,10 +5083,10 @@
         <v>71</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="D30" s="4">
         <v>13.32</v>
@@ -5220,10 +5220,10 @@
         <v>72</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="D31" s="4">
         <v>13.32</v>
@@ -5357,10 +5357,10 @@
         <v>73</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="D32" s="4">
         <v>13.32</v>
@@ -5494,10 +5494,10 @@
         <v>74</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D33" s="4">
         <v>12</v>
@@ -5631,10 +5631,10 @@
         <v>75</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D34" s="4">
         <v>13.32</v>
@@ -5768,10 +5768,10 @@
         <v>76</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="D35" s="4">
         <v>13.32</v>
@@ -5905,10 +5905,10 @@
         <v>77</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="D36" s="4">
         <v>15.34</v>
@@ -6042,10 +6042,10 @@
         <v>78</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="D37" s="4">
         <v>16.95</v>
@@ -6179,10 +6179,10 @@
         <v>79</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="D38" s="4">
         <v>13.5</v>
@@ -6316,10 +6316,10 @@
         <v>80</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="D39" s="4">
         <v>12</v>
@@ -6453,10 +6453,10 @@
         <v>81</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="D40" s="4">
         <v>13.32</v>
@@ -6590,10 +6590,10 @@
         <v>82</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="D41" s="4">
         <v>13.32</v>
@@ -6727,10 +6727,10 @@
         <v>83</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="D42" s="4">
         <v>13.32</v>
@@ -6864,10 +6864,10 @@
         <v>84</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D43" s="4">
         <v>13.32</v>
@@ -7001,10 +7001,10 @@
         <v>85</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="D44" s="4">
         <v>13.32</v>
@@ -7138,10 +7138,10 @@
         <v>86</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="D45" s="4">
         <v>13.32</v>
@@ -7275,10 +7275,10 @@
         <v>87</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="D46" s="4">
         <v>13.32</v>
@@ -7412,10 +7412,10 @@
         <v>88</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="D47" s="4">
         <v>13.32</v>
@@ -7549,10 +7549,10 @@
         <v>89</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="D48" s="4">
         <v>13.39</v>
@@ -7686,10 +7686,10 @@
         <v>90</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="D49" s="4">
         <v>13.32</v>
@@ -7823,10 +7823,10 @@
         <v>91</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="D50" s="4">
         <v>13.32</v>
@@ -7960,10 +7960,10 @@
         <v>92</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="D51" s="4">
         <v>13.32</v>
@@ -8097,10 +8097,10 @@
         <v>93</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D52" s="4">
         <v>13.32</v>
@@ -8234,10 +8234,10 @@
         <v>94</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="D53" s="4">
         <v>12</v>
@@ -8371,10 +8371,10 @@
         <v>95</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="D54" s="4">
         <v>13.32</v>
@@ -8508,10 +8508,10 @@
         <v>96</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="D55" s="4">
         <v>13.32</v>
@@ -8645,10 +8645,10 @@
         <v>97</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="D56" s="4">
         <v>13.32</v>
@@ -8782,10 +8782,10 @@
         <v>98</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D57" s="4">
         <v>13.32</v>
@@ -8919,10 +8919,10 @@
         <v>99</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="D58" s="4">
         <v>13.32</v>
@@ -9056,10 +9056,10 @@
         <v>100</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D59" s="4">
         <v>13.32</v>
@@ -9193,10 +9193,10 @@
         <v>101</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="D60" s="4">
         <v>13.32</v>
@@ -9330,10 +9330,10 @@
         <v>102</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="D61" s="4">
         <v>13.32</v>
@@ -9467,10 +9467,10 @@
         <v>103</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="D62" s="4">
         <v>13.32</v>
@@ -9604,10 +9604,10 @@
         <v>104</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="D63" s="4">
         <v>12</v>
@@ -9741,10 +9741,10 @@
         <v>105</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="D64" s="4">
         <v>13.32</v>
@@ -9878,10 +9878,10 @@
         <v>106</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D65" s="4">
         <v>13.32</v>
